--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/召唤包配置_call.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/召唤包配置_call.xlsx
@@ -17,15 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">call!$B$2:$F$1904</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>——</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -49,232 +46,71 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|2|5,1|3|5,1|4|5</t>
+    <t>player_lv</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|2|5,1|3|5,1|4|5</t>
+    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
+  </si>
+  <si>
+    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|2|5,1|3|5,1|4|5</t>
+    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|2|5,1|3|5,1|4|5</t>
+    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,1|2|10,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,1|70002|10,1|70003|10,1|70004|10</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,1|2|10,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|70002|10,1|70003|10,1|70004|10</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,1|2|10,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|70002|15,1|70003|15,1|70004|15</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|2|10,1|3|10,1|4|10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|70002|20,1|70003|20,1|70004|20</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|2|15,1|3|15,1|4|15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|2|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|70002|30,1|70003|30,1|70004|30</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|2|15,1|3|15,1|4|15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|3|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|70002|30,1|70003|30,1|70004|30</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|2|15,1|3|15,1|4|15</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|4|1,2|4|1,2|4|1,2|5|1,2|5|1,2|6|1,1|70002|50,1|70003|50,1|70004|50</t>
   </si>
   <si>
-    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|2|20,1|3|20,1|4|20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|70002|50,1|70003|50,1|70004|50</t>
   </si>
   <si>
-    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|2|20,1|3|20,1|4|20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|70002|100,1|70003|100,1|70004|100</t>
   </si>
   <si>
-    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|2|20,1|3|20,1|4|20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|7|1,2|7|1,2|7|1,2|8|1,2|9|1,2|10|1,1|70002|150,1|70003|150,1|70004|150</t>
   </si>
   <si>
-    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|2|20,1|3|20,1|4|20</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|70002|150,1|70003|150,1|70004|150</t>
   </si>
   <si>
-    <t>2|2|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|2|30,1|3|30,1|4|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|9|1,2|9|1,2|10|1,2|10|1,2|11|1,2|12|1,1|70002|200,1|70003|200,1|70004|200</t>
   </si>
   <si>
-    <t>2|2|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|2|30,1|3|30,1|4|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|10|1,2|10|1,2|11|1,2|11|1,2|12|1,2|13|1,1|70002|200,1|70003|200,1|70004|200</t>
   </si>
   <si>
-    <t>2|2|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|2|30,1|3|30,1|4|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|11|1,2|11|1,2|12|1,2|12|1,2|13|1,2|14|1,1|70002|500,1|70003|500,1|70004|500</t>
   </si>
   <si>
-    <t>2|3|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|2|30,1|3|30,1|4|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|12|1,2|12|1,2|12|1,2|13|1,2|14|1,2|15|1,1|70002|500,1|70003|500,1|70004|500</t>
   </si>
   <si>
-    <t>2|3|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|2|30,1|3|30,1|4|30</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|4|1,2|4|1,2|4|1,2|5|1,2|5|1,2|6|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|4|1,2|4|1,2|4|1,2|5|1,2|5|1,2|6|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|4|1,2|4|1,2|4|1,2|5|1,2|5|1,2|6|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|2|50,1|3|50,1|4|50</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|2|100,1|3|100,1|4|100</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|2|100,1|3|100,1|4|100</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|2|100,1|3|100,1|4|100</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|2|100,1|3|100,1|4|100</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|2|100,1|3|100,1|4|100</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|7|1,2|7|1,2|7|1,2|8|1,2|9|1,2|10|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|7|1,2|7|1,2|7|1,2|8|1,2|9|1,2|10|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|2|150,1|3|150,1|4|150</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|9|1,2|9|1,2|10|1,2|10|1,2|11|1,2|12|1,1|2|200,1|3|200,1|4|200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|9|1,2|9|1,2|10|1,2|10|1,2|11|1,2|12|1,1|2|200,1|3|200,1|4|200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|10|1,2|10|1,2|11|1,2|11|1,2|12|1,2|13|1,1|2|200,1|3|200,1|4|200</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|11|1,2|11|1,2|12|1,2|12|1,2|13|1,2|14|1,1|2|500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|11|1,2|11|1,2|12|1,2|12|1,2|13|1,2|14|1,1|2|500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|11|1,2|11|1,2|12|1,2|12|1,2|13|1,2|14|1,1|2|500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|12|1,2|12|1,2|12|1,2|13|1,2|14|1,2|15|1,1|2|500,1|3|500,1|4|500</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|2|1000,1|3|1000,1|4|1000</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|70002|1000,1|70003|1000,1|70004|1000</t>
   </si>
 </sst>
 </file>
@@ -935,14 +771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="79.625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="14" customWidth="1"/>
+    <col min="2" max="2" width="85.625" style="14" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="14" customWidth="1"/>
     <col min="5" max="5" width="16.375" style="15" customWidth="1"/>
@@ -954,10 +790,10 @@
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="165" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -966,10 +802,10 @@
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="19"/>
     </row>
@@ -978,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -989,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1000,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1011,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1022,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="21"/>
@@ -1042,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="21"/>
@@ -1052,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="21"/>
@@ -1072,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="21"/>
@@ -1082,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="21"/>
@@ -1092,7 +928,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="21"/>
@@ -1102,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="21"/>
@@ -1112,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="21"/>
@@ -1122,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="21"/>
@@ -1132,7 +968,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5"/>
       <c r="E19" s="21"/>
@@ -1142,7 +978,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="21"/>
@@ -1152,7 +988,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5"/>
       <c r="E21" s="21"/>
@@ -1162,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="21"/>
@@ -1172,11 +1008,11 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1184,7 +1020,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5"/>
       <c r="E24" s="21"/>
@@ -1194,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5"/>
       <c r="E25" s="21"/>
@@ -1204,7 +1040,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" s="21"/>
@@ -1214,7 +1050,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5"/>
       <c r="E27" s="21"/>
@@ -1224,7 +1060,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5"/>
       <c r="E28" s="21"/>
@@ -1234,7 +1070,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C29" s="5"/>
       <c r="E29" s="21"/>
@@ -1244,7 +1080,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C30" s="5"/>
       <c r="E30" s="21"/>
@@ -1254,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5"/>
       <c r="E31" s="21"/>
@@ -1264,7 +1100,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C32" s="5"/>
       <c r="E32" s="21"/>
@@ -1274,7 +1110,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5"/>
       <c r="E33" s="21"/>
@@ -1284,7 +1120,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C34" s="5"/>
       <c r="E34" s="21"/>
@@ -1294,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C35" s="5"/>
       <c r="E35" s="21"/>
@@ -1304,7 +1140,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5"/>
       <c r="E36" s="21"/>
@@ -1314,7 +1150,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C37" s="5"/>
       <c r="E37" s="21"/>
@@ -1324,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C38" s="5"/>
       <c r="E38" s="21"/>
@@ -1334,7 +1170,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C39" s="5"/>
       <c r="E39" s="21"/>
@@ -1344,7 +1180,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C40" s="5"/>
       <c r="E40" s="21"/>
@@ -1354,7 +1190,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C41" s="5"/>
       <c r="E41" s="21"/>
@@ -1364,7 +1200,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5"/>
       <c r="E42" s="21"/>
@@ -1374,7 +1210,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C43" s="5"/>
       <c r="E43" s="21"/>
@@ -1384,7 +1220,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C44" s="5"/>
       <c r="E44" s="21"/>
@@ -1394,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C45" s="5"/>
       <c r="E45" s="21"/>
@@ -1404,7 +1240,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="21"/>
@@ -1414,7 +1250,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C47" s="5"/>
       <c r="E47" s="21"/>
@@ -1424,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C48" s="5"/>
       <c r="E48" s="21"/>
@@ -1434,7 +1270,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C49" s="5"/>
       <c r="E49" s="21"/>
@@ -1444,7 +1280,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C50" s="5"/>
       <c r="E50" s="21"/>
@@ -1454,7 +1290,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C51" s="5"/>
       <c r="E51" s="21"/>
@@ -1464,7 +1300,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C52" s="5"/>
       <c r="E52" s="21"/>
@@ -1474,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C53" s="5"/>
       <c r="E53" s="21"/>
@@ -1484,7 +1320,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C54" s="5"/>
       <c r="E54" s="21"/>
@@ -1494,7 +1330,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C55" s="5"/>
       <c r="E55" s="21"/>
@@ -1504,7 +1340,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C56" s="5"/>
       <c r="E56" s="21"/>
@@ -1514,7 +1350,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C57" s="5"/>
       <c r="E57" s="21"/>
@@ -1524,7 +1360,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C58" s="5"/>
       <c r="E58" s="21"/>
@@ -1534,7 +1370,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C59" s="5"/>
       <c r="E59" s="21"/>
@@ -1544,7 +1380,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C60" s="5"/>
       <c r="E60" s="21"/>
@@ -1554,7 +1390,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C61" s="5"/>
       <c r="E61" s="21"/>
@@ -1564,7 +1400,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C62" s="5"/>
       <c r="E62" s="21"/>
@@ -1574,7 +1410,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5"/>
       <c r="E63" s="21"/>
@@ -1584,7 +1420,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="21"/>
@@ -1594,7 +1430,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="21"/>
@@ -1604,7 +1440,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="21"/>
@@ -1614,7 +1450,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C67" s="5"/>
       <c r="E67" s="21"/>
@@ -1624,7 +1460,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C68" s="5"/>
       <c r="E68" s="21"/>
@@ -1634,7 +1470,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C69" s="5"/>
       <c r="E69" s="21"/>
@@ -1644,7 +1480,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C70" s="5"/>
       <c r="E70" s="21"/>
@@ -1654,7 +1490,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C71" s="5"/>
       <c r="E71" s="21"/>
@@ -1664,7 +1500,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C72" s="5"/>
       <c r="E72" s="21"/>
@@ -1674,7 +1510,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C73" s="5"/>
       <c r="E73" s="21"/>
@@ -1684,7 +1520,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C74" s="5"/>
       <c r="E74" s="21"/>
@@ -1694,7 +1530,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C75" s="5"/>
       <c r="E75" s="21"/>
@@ -1704,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C76" s="5"/>
       <c r="E76" s="21"/>
@@ -1714,7 +1550,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C77" s="5"/>
       <c r="E77" s="21"/>
@@ -1724,7 +1560,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C78" s="5"/>
       <c r="E78" s="21"/>
@@ -1734,7 +1570,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C79" s="5"/>
       <c r="E79" s="21"/>
@@ -1744,7 +1580,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C80" s="5"/>
       <c r="E80" s="21"/>
@@ -1754,7 +1590,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C81" s="5"/>
       <c r="E81" s="21"/>
@@ -1764,7 +1600,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C82" s="5"/>
       <c r="E82" s="21"/>
@@ -1774,7 +1610,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C83" s="5"/>
       <c r="E83" s="21"/>
@@ -1784,7 +1620,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C84" s="5"/>
       <c r="E84" s="21"/>
@@ -1794,7 +1630,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C85" s="5"/>
       <c r="E85" s="21"/>
@@ -1804,7 +1640,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C86" s="5"/>
       <c r="E86" s="21"/>
@@ -1814,7 +1650,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C87" s="5"/>
       <c r="E87" s="21"/>
@@ -1824,7 +1660,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E88" s="22"/>
     </row>
@@ -1833,7 +1669,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C89" s="5"/>
       <c r="E89" s="21"/>
@@ -1843,7 +1679,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C90" s="5"/>
       <c r="E90" s="21"/>
@@ -1853,7 +1689,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C91" s="5"/>
       <c r="E91" s="21"/>
@@ -1863,7 +1699,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C92" s="5"/>
       <c r="E92" s="21"/>
@@ -1873,7 +1709,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C93" s="5"/>
       <c r="E93" s="21"/>
@@ -1883,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C94" s="5"/>
       <c r="E94" s="21"/>
@@ -1893,7 +1729,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C95" s="5"/>
       <c r="E95" s="21"/>
@@ -1903,7 +1739,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C96" s="5"/>
       <c r="E96" s="21"/>
@@ -1913,7 +1749,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C97" s="5"/>
       <c r="E97" s="21"/>
@@ -1923,7 +1759,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C98" s="5"/>
       <c r="E98" s="21"/>
@@ -1933,7 +1769,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C99" s="5"/>
       <c r="E99" s="21"/>
@@ -1943,7 +1779,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C100" s="5"/>
       <c r="E100" s="21"/>
@@ -1953,7 +1789,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C101" s="5"/>
       <c r="E101" s="21"/>
@@ -1963,7 +1799,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C102" s="5"/>
       <c r="E102" s="21"/>
@@ -1973,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C103" s="5"/>
       <c r="E103" s="21"/>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/召唤包配置_call.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/召唤包配置_call.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
   <si>
     <t>——</t>
     <phoneticPr fontId="13" type="noConversion"/>
@@ -36,81 +36,67 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>召唤包
-类型：
-1-资源
-2-猫
-以“|”号间隔
-（类型|ID|数量,类型|ID|数量）
-玩家召唤时随机抽取其中一样</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>player_lv</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
+    <t>1_1,1_1,1_1,1_1,1_1,1_1,70002_5,70003_5,70004_5</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1_1,1_1,1_1,1_1,2_1,2_1,70002_10,70003_10,70004_10</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1_1,1_1,1_1,2_1,2_1,3_1,70002_10,70003_10,70004_10</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,2|1|1,1|70002|5,1|70003|5,1|70004|5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <t>1_1,1_1,1_1,2_1,2_1,3_1,70002_15,70003_15,70004_15</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,1|70002|10,1|70003|10,1|70004|10</t>
+    <t>2_1,2_1,2_1,3_1,3_1,4_1,70002_20,70003_20,70004_20</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|70002|10,1|70003|10,1|70004|10</t>
+    <t>2_1,3_1,3_1,4_1,4_1,5_1,70002_30,70003_30,70004_30</t>
   </si>
   <si>
-    <t>2|1|1,2|1|1,2|1|1,2|2|1,2|2|1,2|3|1,1|70002|15,1|70003|15,1|70004|15</t>
+    <t>3_1,3_1,3_1,4_1,4_1,5_1,70002_30,70003_30,70004_30</t>
   </si>
   <si>
-    <t>2|2|1,2|2|1,2|2|1,2|3|1,2|3|1,2|4|1,1|70002|20,1|70003|20,1|70004|20</t>
+    <t>4_1,4_1,4_1,5_1,5_1,6_1,70002_50,70003_50,70004_50</t>
   </si>
   <si>
-    <t>2|2|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|70002|30,1|70003|30,1|70004|30</t>
+    <t>5_1,5_1,6_1,7_1,7_1,8_1,70002_50,70003_50,70004_50</t>
   </si>
   <si>
-    <t>2|3|1,2|3|1,2|3|1,2|4|1,2|4|1,2|5|1,1|70002|30,1|70003|30,1|70004|30</t>
+    <t>6_1,6_1,7_1,7_1,8_1,9_1,70002_100,70003_100,70004_100</t>
   </si>
   <si>
-    <t>2|4|1,2|4|1,2|4|1,2|5|1,2|5|1,2|6|1,1|70002|50,1|70003|50,1|70004|50</t>
+    <t>7_1,7_1,7_1,8_1,9_1,10_1,70002_150,70003_150,70004_150</t>
   </si>
   <si>
-    <t>2|5|1,2|5|1,2|6|1,2|7|1,2|7|1,2|8|1,1|70002|50,1|70003|50,1|70004|50</t>
+    <t>8_1,8_1,9_1,9_1,10_1,11_1,70002_150,70003_150,70004_150</t>
   </si>
   <si>
-    <t>2|6|1,2|6|1,2|7|1,2|7|1,2|8|1,2|9|1,1|70002|100,1|70003|100,1|70004|100</t>
+    <t>9_1,9_1,10_1,10_1,11_1,12_1,70002_200,70003_200,70004_200</t>
   </si>
   <si>
-    <t>2|7|1,2|7|1,2|7|1,2|8|1,2|9|1,2|10|1,1|70002|150,1|70003|150,1|70004|150</t>
+    <t>10_1,10_1,11_1,11_1,12_1,13_1,70002_200,70003_200,70004_200</t>
   </si>
   <si>
-    <t>2|8|1,2|8|1,2|9|1,2|9|1,2|10|1,2|11|1,1|70002|150,1|70003|150,1|70004|150</t>
+    <t>11_1,11_1,12_1,12_1,13_1,14_1,70002_500,70003_500,70004_500</t>
   </si>
   <si>
-    <t>2|9|1,2|9|1,2|10|1,2|10|1,2|11|1,2|12|1,1|70002|200,1|70003|200,1|70004|200</t>
+    <t>12_1,12_1,12_1,13_1,14_1,15_1,70002_500,70003_500,70004_500</t>
   </si>
   <si>
-    <t>2|10|1,2|10|1,2|11|1,2|11|1,2|12|1,2|13|1,1|70002|200,1|70003|200,1|70004|200</t>
+    <t>13_1,13_1,14_1,14_1,15_1,16_1,70002_1000,70003_1000,70004_1000</t>
   </si>
   <si>
-    <t>2|11|1,2|11|1,2|12|1,2|12|1,2|13|1,2|14|1,1|70002|500,1|70003|500,1|70004|500</t>
-  </si>
-  <si>
-    <t>2|12|1,2|12|1,2|12|1,2|13|1,2|14|1,2|15|1,1|70002|500,1|70003|500,1|70004|500</t>
-  </si>
-  <si>
-    <t>2|13|1,2|13|1,2|14|1,2|14|1,2|15|1,2|16|1,1|70002|1000,1|70003|1000,1|70004|1000</t>
+    <t>召唤包
+类型：
+以“,”号间隔
+(ID_数量,ID_数量）
+","代表玩家召唤时随机抽取其中一样</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -771,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -793,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -802,7 +788,7 @@
     </row>
     <row r="3" spans="1:6" s="10" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -814,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -825,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -836,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -847,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -858,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="21"/>
@@ -868,7 +854,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="E9" s="21"/>
@@ -878,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10" s="5"/>
       <c r="E10" s="21"/>
@@ -888,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5"/>
       <c r="E11" s="21"/>
@@ -898,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="21"/>
@@ -908,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5"/>
       <c r="E13" s="21"/>
@@ -918,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="E14" s="21"/>
@@ -928,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5"/>
       <c r="E15" s="21"/>
@@ -938,7 +924,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5"/>
       <c r="E16" s="21"/>
@@ -948,7 +934,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C17" s="5"/>
       <c r="E17" s="21"/>
@@ -958,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5"/>
       <c r="E18" s="21"/>
@@ -968,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="5"/>
       <c r="E19" s="21"/>
@@ -978,7 +964,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="5"/>
       <c r="E20" s="21"/>
@@ -988,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5"/>
       <c r="E21" s="21"/>
@@ -998,7 +984,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" s="5"/>
       <c r="E22" s="21"/>
@@ -1008,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="21" t="s">
@@ -1020,7 +1006,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C24" s="5"/>
       <c r="E24" s="21"/>
@@ -1030,7 +1016,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5"/>
       <c r="E25" s="21"/>
@@ -1040,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5"/>
       <c r="E26" s="21"/>
@@ -1050,7 +1036,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5"/>
       <c r="E27" s="21"/>
@@ -1060,7 +1046,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" s="5"/>
       <c r="E28" s="21"/>
@@ -1070,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C29" s="5"/>
       <c r="E29" s="21"/>
@@ -1080,7 +1066,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5"/>
       <c r="E30" s="21"/>
@@ -1090,7 +1076,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5"/>
       <c r="E31" s="21"/>
@@ -1100,7 +1086,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32" s="5"/>
       <c r="E32" s="21"/>
@@ -1110,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C33" s="5"/>
       <c r="E33" s="21"/>
@@ -1120,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C34" s="5"/>
       <c r="E34" s="21"/>
@@ -1130,7 +1116,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35" s="5"/>
       <c r="E35" s="21"/>
@@ -1140,7 +1126,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C36" s="5"/>
       <c r="E36" s="21"/>
@@ -1150,7 +1136,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C37" s="5"/>
       <c r="E37" s="21"/>
@@ -1160,7 +1146,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" s="5"/>
       <c r="E38" s="21"/>
@@ -1170,7 +1156,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5"/>
       <c r="E39" s="21"/>
@@ -1180,7 +1166,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" s="5"/>
       <c r="E40" s="21"/>
@@ -1190,7 +1176,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C41" s="5"/>
       <c r="E41" s="21"/>
@@ -1200,7 +1186,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5"/>
       <c r="E42" s="21"/>
@@ -1210,7 +1196,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C43" s="5"/>
       <c r="E43" s="21"/>
@@ -1220,7 +1206,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" s="5"/>
       <c r="E44" s="21"/>
@@ -1230,7 +1216,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C45" s="5"/>
       <c r="E45" s="21"/>
@@ -1240,7 +1226,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" s="5"/>
       <c r="E46" s="21"/>
@@ -1250,7 +1236,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C47" s="5"/>
       <c r="E47" s="21"/>
@@ -1260,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48" s="5"/>
       <c r="E48" s="21"/>
@@ -1270,7 +1256,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C49" s="5"/>
       <c r="E49" s="21"/>
@@ -1280,7 +1266,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C50" s="5"/>
       <c r="E50" s="21"/>
@@ -1290,7 +1276,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51" s="5"/>
       <c r="E51" s="21"/>
@@ -1300,7 +1286,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C52" s="5"/>
       <c r="E52" s="21"/>
@@ -1310,7 +1296,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53" s="5"/>
       <c r="E53" s="21"/>
@@ -1320,7 +1306,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C54" s="5"/>
       <c r="E54" s="21"/>
@@ -1330,7 +1316,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C55" s="5"/>
       <c r="E55" s="21"/>
@@ -1340,7 +1326,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C56" s="5"/>
       <c r="E56" s="21"/>
@@ -1350,7 +1336,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" s="5"/>
       <c r="E57" s="21"/>
@@ -1360,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" s="5"/>
       <c r="E58" s="21"/>
@@ -1370,7 +1356,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C59" s="5"/>
       <c r="E59" s="21"/>
@@ -1380,7 +1366,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C60" s="5"/>
       <c r="E60" s="21"/>
@@ -1390,7 +1376,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C61" s="5"/>
       <c r="E61" s="21"/>
@@ -1400,7 +1386,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C62" s="5"/>
       <c r="E62" s="21"/>
@@ -1410,7 +1396,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C63" s="5"/>
       <c r="E63" s="21"/>
@@ -1420,7 +1406,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C64" s="5"/>
       <c r="E64" s="21"/>
@@ -1430,7 +1416,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C65" s="5"/>
       <c r="E65" s="21"/>
@@ -1440,7 +1426,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C66" s="5"/>
       <c r="E66" s="21"/>
@@ -1450,7 +1436,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C67" s="5"/>
       <c r="E67" s="21"/>
@@ -1460,7 +1446,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C68" s="5"/>
       <c r="E68" s="21"/>
@@ -1470,7 +1456,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C69" s="5"/>
       <c r="E69" s="21"/>
@@ -1480,7 +1466,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C70" s="5"/>
       <c r="E70" s="21"/>
@@ -1490,7 +1476,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C71" s="5"/>
       <c r="E71" s="21"/>
@@ -1500,7 +1486,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C72" s="5"/>
       <c r="E72" s="21"/>
@@ -1510,7 +1496,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C73" s="5"/>
       <c r="E73" s="21"/>
@@ -1520,7 +1506,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C74" s="5"/>
       <c r="E74" s="21"/>
@@ -1530,7 +1516,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75" s="5"/>
       <c r="E75" s="21"/>
@@ -1540,7 +1526,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C76" s="5"/>
       <c r="E76" s="21"/>
@@ -1550,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C77" s="5"/>
       <c r="E77" s="21"/>
@@ -1560,7 +1546,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C78" s="5"/>
       <c r="E78" s="21"/>
@@ -1570,7 +1556,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C79" s="5"/>
       <c r="E79" s="21"/>
@@ -1580,7 +1566,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C80" s="5"/>
       <c r="E80" s="21"/>
@@ -1590,7 +1576,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C81" s="5"/>
       <c r="E81" s="21"/>
@@ -1600,7 +1586,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C82" s="5"/>
       <c r="E82" s="21"/>
@@ -1610,7 +1596,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C83" s="5"/>
       <c r="E83" s="21"/>
@@ -1620,7 +1606,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C84" s="5"/>
       <c r="E84" s="21"/>
@@ -1630,7 +1616,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C85" s="5"/>
       <c r="E85" s="21"/>
@@ -1640,7 +1626,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86" s="5"/>
       <c r="E86" s="21"/>
@@ -1650,7 +1636,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C87" s="5"/>
       <c r="E87" s="21"/>
@@ -1660,7 +1646,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E88" s="22"/>
     </row>
@@ -1669,7 +1655,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C89" s="5"/>
       <c r="E89" s="21"/>
@@ -1679,7 +1665,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C90" s="5"/>
       <c r="E90" s="21"/>
@@ -1689,7 +1675,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C91" s="5"/>
       <c r="E91" s="21"/>
@@ -1699,7 +1685,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C92" s="5"/>
       <c r="E92" s="21"/>
@@ -1709,7 +1695,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C93" s="5"/>
       <c r="E93" s="21"/>
@@ -1719,7 +1705,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C94" s="5"/>
       <c r="E94" s="21"/>
@@ -1729,7 +1715,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C95" s="5"/>
       <c r="E95" s="21"/>
@@ -1739,7 +1725,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C96" s="5"/>
       <c r="E96" s="21"/>
@@ -1749,7 +1735,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C97" s="5"/>
       <c r="E97" s="21"/>
@@ -1759,7 +1745,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C98" s="5"/>
       <c r="E98" s="21"/>
@@ -1769,7 +1755,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C99" s="5"/>
       <c r="E99" s="21"/>
@@ -1779,7 +1765,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C100" s="5"/>
       <c r="E100" s="21"/>
@@ -1789,7 +1775,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C101" s="5"/>
       <c r="E101" s="21"/>
@@ -1799,7 +1785,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C102" s="5"/>
       <c r="E102" s="21"/>
@@ -1809,7 +1795,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C103" s="5"/>
       <c r="E103" s="21"/>
